--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.2159497015024884</v>
+        <v>0.2589695869521966</v>
       </c>
       <c r="D2">
-        <v>0.8290531859270103</v>
+        <v>0.7980663936084045</v>
       </c>
       <c r="E2">
         <v>0.7170456350707214</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>2.091009717114069</v>
+        <v>2.837697657568838</v>
       </c>
       <c r="D3">
-        <v>0.03667719393814939</v>
+        <v>0.009577714291172823</v>
       </c>
       <c r="E3">
         <v>0.7170456350707214</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7339715021567126</v>
+        <v>0.7282625919490749</v>
       </c>
       <c r="D4">
-        <v>0.4630685858999632</v>
+        <v>0.4741338626895228</v>
       </c>
       <c r="E4">
         <v>0.7170456350707214</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.04471281612374737</v>
+        <v>-0.05209187286232511</v>
       </c>
       <c r="D5">
-        <v>0.9643415350723652</v>
+        <v>0.9589255961969929</v>
       </c>
       <c r="E5">
         <v>0.7170456350707214</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.580505673210775</v>
+        <v>1.454963415918597</v>
       </c>
       <c r="D6">
-        <v>0.1141794620491174</v>
+        <v>0.1598003291846837</v>
       </c>
       <c r="E6">
         <v>0.7103735499008639</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.4239649146345131</v>
+        <v>0.4239998253858546</v>
       </c>
       <c r="D7">
-        <v>0.6716457108931806</v>
+        <v>0.6756830419372992</v>
       </c>
       <c r="E7">
         <v>0.7103735499008639</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.2544929099097698</v>
+        <v>-0.2345623162375872</v>
       </c>
       <c r="D8">
-        <v>0.799145945505936</v>
+        <v>0.8167177561495946</v>
       </c>
       <c r="E8">
         <v>0.7103735499008639</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.113205813284658</v>
+        <v>-1.167079326485868</v>
       </c>
       <c r="D9">
-        <v>0.2657793920101519</v>
+        <v>0.2556730650255756</v>
       </c>
       <c r="E9">
         <v>0.6606263466149416</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.869451473742609</v>
+        <v>-2.042012647552816</v>
       </c>
       <c r="D10">
-        <v>0.06173397501210576</v>
+        <v>0.05331902861636562</v>
       </c>
       <c r="E10">
         <v>0.6606263466149416</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.6475398833728753</v>
+        <v>-0.6775430290495614</v>
       </c>
       <c r="D11">
-        <v>0.5173711173353372</v>
+        <v>0.5051250668620766</v>
       </c>
       <c r="E11">
         <v>0.6957168250900114</v>
